--- a/Usage_S_1.0.7.xlsx
+++ b/Usage_S_1.0.7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62922F38-E21A-4EFB-9AF8-D7A0BF98C1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD87013-5C6A-4D98-8EB7-1881B48462AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="211">
   <si>
     <t>UnSettled</t>
   </si>
@@ -654,6 +654,21 @@
   </si>
   <si>
     <t>X-Professional - (6) -X</t>
+  </si>
+  <si>
+    <t>30/12/2023</t>
+  </si>
+  <si>
+    <t>X-FuelW(14)  - X</t>
+  </si>
+  <si>
+    <t>X-FishMp - (1) -X</t>
+  </si>
+  <si>
+    <t>X-Tiger(4)  - X</t>
+  </si>
+  <si>
+    <t>X-ParcelW - (2) -X</t>
   </si>
 </sst>
 </file>
@@ -1511,7 +1526,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="285">
+  <cellXfs count="284">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2121,85 +2136,82 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2213,16 +2225,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2510,8 +2524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2525,7 +2539,7 @@
     <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.5703125" style="25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" style="117" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" style="192" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" style="192" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.140625" style="117" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="117" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -2713,10 +2727,10 @@
     </row>
     <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
-        <v>1685</v>
+        <v>1725</v>
       </c>
       <c r="C6">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="E6" s="218"/>
       <c r="F6" s="207"/>
@@ -2763,7 +2777,9 @@
       <c r="B7" s="29">
         <v>0</v>
       </c>
-      <c r="E7" s="165"/>
+      <c r="E7" s="165">
+        <v>1</v>
+      </c>
       <c r="F7" s="207"/>
       <c r="G7" s="127"/>
       <c r="H7" s="9" t="s">
@@ -2775,7 +2791,9 @@
       <c r="J7" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="K7" s="194"/>
+      <c r="K7" s="194" t="s">
+        <v>208</v>
+      </c>
       <c r="L7" s="83" t="s">
         <v>139</v>
       </c>
@@ -2792,7 +2810,7 @@
         <v>95</v>
       </c>
       <c r="Q7" s="154">
-        <v>0.8125</v>
+        <v>0.85555555555555562</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>130</v>
@@ -2801,7 +2819,7 @@
         <v>0.85555555555555562</v>
       </c>
       <c r="U7" s="24" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2847,9 +2865,11 @@
       </c>
       <c r="B9" s="8">
         <f>7000+B6-C2</f>
-        <v>8685</v>
-      </c>
-      <c r="E9" s="163"/>
+        <v>8725</v>
+      </c>
+      <c r="E9" s="163">
+        <v>14</v>
+      </c>
       <c r="F9" s="165"/>
       <c r="G9" s="177"/>
       <c r="H9" s="9" t="s">
@@ -2861,7 +2881,9 @@
       <c r="J9" s="213" t="s">
         <v>165</v>
       </c>
-      <c r="K9" s="194"/>
+      <c r="K9" s="215" t="s">
+        <v>209</v>
+      </c>
       <c r="L9" s="223" t="s">
         <v>163</v>
       </c>
@@ -2878,13 +2900,13 @@
         <v>30</v>
       </c>
       <c r="Q9" s="154">
-        <v>0.63541666666666663</v>
+        <v>0.71875</v>
       </c>
       <c r="S9" s="154">
-        <v>0.63541666666666663</v>
+        <v>0.71875</v>
       </c>
       <c r="U9" s="24" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2930,7 +2952,9 @@
         <f>B9-B13</f>
         <v>0</v>
       </c>
-      <c r="E11" s="221"/>
+      <c r="E11" s="221">
+        <v>10</v>
+      </c>
       <c r="F11" s="209"/>
       <c r="G11" s="184"/>
       <c r="H11" s="9" t="s">
@@ -2967,7 +2991,7 @@
         <v>0.8125</v>
       </c>
       <c r="U11" s="24" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3014,9 +3038,11 @@
       </c>
       <c r="B13" s="8">
         <f>B18+Purchase!O2</f>
-        <v>8685</v>
-      </c>
-      <c r="E13" s="36"/>
+        <v>8725</v>
+      </c>
+      <c r="E13" s="36">
+        <v>5</v>
+      </c>
       <c r="F13" s="205"/>
       <c r="G13" s="15"/>
       <c r="H13" s="9" t="s">
@@ -3028,7 +3054,9 @@
       <c r="J13" s="228" t="s">
         <v>186</v>
       </c>
-      <c r="K13" s="195"/>
+      <c r="K13" s="215" t="s">
+        <v>207</v>
+      </c>
       <c r="L13" s="183" t="s">
         <v>155</v>
       </c>
@@ -3045,20 +3073,22 @@
         <v>90</v>
       </c>
       <c r="Q13" s="154">
-        <v>0.6875</v>
+        <v>0.71875</v>
       </c>
       <c r="R13"/>
       <c r="S13" s="154">
         <v>0.84375</v>
       </c>
       <c r="U13" s="24" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
-      <c r="E14" s="205"/>
+      <c r="E14" s="205">
+        <v>10</v>
+      </c>
       <c r="F14" s="205"/>
       <c r="G14" s="184"/>
       <c r="H14" s="9" t="s">
@@ -3068,7 +3098,9 @@
         <v>17</v>
       </c>
       <c r="J14" s="213"/>
-      <c r="K14" s="194"/>
+      <c r="K14" s="194" t="s">
+        <v>210</v>
+      </c>
       <c r="L14" s="83" t="s">
         <v>124</v>
       </c>
@@ -3081,14 +3113,14 @@
         <v>29</v>
       </c>
       <c r="Q14" s="154">
-        <v>0.91666666666666663</v>
+        <v>0.71875</v>
       </c>
       <c r="R14"/>
       <c r="S14" s="154">
         <v>0.91666666666666663</v>
       </c>
       <c r="U14" s="24" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3153,7 +3185,7 @@
       <c r="G17" s="189"/>
       <c r="H17" s="9">
         <f>SUM(E4:G15)</f>
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="I17" s="26"/>
       <c r="J17" s="119"/>
@@ -3208,8 +3240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0951DD9-29CF-40D7-AA95-AE74BC805B9C}">
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="O50" sqref="O50:O51"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3233,18 +3265,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="250" t="s">
+      <c r="E1" s="261" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="252"/>
+      <c r="F1" s="263"/>
       <c r="G1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="250" t="s">
+      <c r="H1" s="261" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="251"/>
-      <c r="J1" s="252"/>
+      <c r="I1" s="262"/>
+      <c r="J1" s="263"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -3262,7 +3294,7 @@
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="253">
+      <c r="B2" s="264">
         <v>2</v>
       </c>
       <c r="C2" s="12">
@@ -3289,26 +3321,26 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="256">
+      <c r="K2" s="267">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="270">
+      <c r="L2" s="259">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="260">
+      <c r="M2" s="249">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
       <c r="O2">
         <f>SUM(E2:J51)</f>
-        <v>8645</v>
+        <v>8685</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="254"/>
+      <c r="B3" s="265"/>
       <c r="C3" s="13">
         <v>350</v>
       </c>
@@ -3323,13 +3355,13 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="55"/>
-      <c r="K3" s="257"/>
-      <c r="L3" s="271"/>
-      <c r="M3" s="261"/>
+      <c r="K3" s="268"/>
+      <c r="L3" s="260"/>
+      <c r="M3" s="250"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
-      <c r="B4" s="255"/>
+      <c r="B4" s="266"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5">
         <v>500</v>
@@ -3344,9 +3376,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="257"/>
-      <c r="L4" s="271"/>
-      <c r="M4" s="261"/>
+      <c r="K4" s="268"/>
+      <c r="L4" s="260"/>
+      <c r="M4" s="250"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -3428,7 +3460,7 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="262">
+      <c r="B7" s="251">
         <v>5</v>
       </c>
       <c r="C7" s="12"/>
@@ -3445,22 +3477,22 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="264">
+      <c r="K7" s="253">
         <f>SUM(F7:J8)</f>
         <v>270</v>
       </c>
-      <c r="L7" s="266">
+      <c r="L7" s="255">
         <f>SUM(E7:J8)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="268">
+      <c r="M7" s="257">
         <f>D8-L7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="263"/>
+      <c r="B8" s="252"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
         <v>500</v>
@@ -3481,9 +3513,9 @@
       <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="265"/>
-      <c r="L8" s="267"/>
-      <c r="M8" s="269"/>
+      <c r="K8" s="254"/>
+      <c r="L8" s="256"/>
+      <c r="M8" s="258"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -3563,7 +3595,7 @@
       <c r="A11" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="262">
+      <c r="B11" s="251">
         <v>8</v>
       </c>
       <c r="C11" s="68"/>
@@ -3590,7 +3622,7 @@
       <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="263"/>
+      <c r="B12" s="252"/>
       <c r="C12" s="90">
         <v>483</v>
       </c>
@@ -3647,7 +3679,7 @@
       <c r="M13" s="82"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="262">
+      <c r="B14" s="251">
         <v>10</v>
       </c>
       <c r="C14" s="95"/>
@@ -3670,7 +3702,7 @@
       <c r="A15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="263"/>
+      <c r="B15" s="252"/>
       <c r="C15" s="96"/>
       <c r="D15" s="82">
         <v>175</v>
@@ -3694,7 +3726,7 @@
       <c r="M15" s="91"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="253">
+      <c r="B16" s="264">
         <v>11</v>
       </c>
       <c r="C16" s="18"/>
@@ -3725,7 +3757,7 @@
       <c r="A17" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="254"/>
+      <c r="B17" s="265"/>
       <c r="C17" s="82"/>
       <c r="D17" s="82"/>
       <c r="E17" s="82"/>
@@ -3743,7 +3775,7 @@
       <c r="M17" s="82"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="253">
+      <c r="B18" s="264">
         <v>12</v>
       </c>
       <c r="C18" s="12"/>
@@ -3772,7 +3804,7 @@
       <c r="A19" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="255"/>
+      <c r="B19" s="266"/>
       <c r="C19" s="13"/>
       <c r="D19" s="18">
         <v>100</v>
@@ -3832,7 +3864,7 @@
       <c r="A21" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="258">
+      <c r="B21" s="270">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3860,7 +3892,7 @@
       <c r="M21" s="55"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="259"/>
+      <c r="B22" s="271"/>
       <c r="C22" s="131"/>
       <c r="D22" s="132">
         <v>235</v>
@@ -4000,7 +4032,7 @@
       <c r="A27" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="249"/>
+      <c r="B27" s="269"/>
       <c r="C27" s="96"/>
       <c r="D27" s="132">
         <v>100</v>
@@ -4331,7 +4363,7 @@
       <c r="A40" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="249"/>
+      <c r="B40" s="269"/>
       <c r="C40" s="96"/>
       <c r="D40" s="82">
         <v>210</v>
@@ -4386,7 +4418,7 @@
       <c r="A42" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="249"/>
+      <c r="B42" s="269"/>
       <c r="C42" s="142"/>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
@@ -4506,7 +4538,7 @@
       <c r="M46" s="18"/>
     </row>
     <row r="47" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="249"/>
+      <c r="B47" s="269"/>
       <c r="C47" s="211"/>
       <c r="D47" s="132"/>
       <c r="E47" s="132"/>
@@ -4547,7 +4579,7 @@
       <c r="M48" s="18"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B49" s="249"/>
+      <c r="B49" s="269"/>
       <c r="C49" s="142"/>
       <c r="D49" s="18">
         <v>175</v>
@@ -4573,7 +4605,7 @@
       <c r="M49" s="18"/>
     </row>
     <row r="50" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="249"/>
+      <c r="B50" s="269"/>
       <c r="C50" s="96"/>
       <c r="D50" s="82"/>
       <c r="E50" s="82"/>
@@ -4608,9 +4640,13 @@
       <c r="E51" s="18"/>
       <c r="F51" s="18"/>
       <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="284">
+      <c r="H51" s="18">
+        <v>20</v>
+      </c>
+      <c r="I51" s="18">
+        <v>20</v>
+      </c>
+      <c r="J51" s="18">
         <v>30</v>
       </c>
       <c r="K51" s="18"/>
@@ -4619,14 +4655,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="K2:K4"/>
@@ -4640,12 +4674,14 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="L2:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9081,7 +9117,7 @@
       <c r="AW32" s="163">
         <v>25</v>
       </c>
-      <c r="AX32" s="281">
+      <c r="AX32" s="272">
         <v>70</v>
       </c>
       <c r="AY32" s="9" t="s">
@@ -9119,7 +9155,7 @@
       <c r="BM32" s="163">
         <v>50</v>
       </c>
-      <c r="BN32" s="281">
+      <c r="BN32" s="272">
         <v>20</v>
       </c>
       <c r="BO32" s="9" t="s">
@@ -9268,7 +9304,7 @@
         <v>148</v>
       </c>
       <c r="AW33" s="163"/>
-      <c r="AX33" s="282"/>
+      <c r="AX33" s="273"/>
       <c r="AY33" s="9" t="s">
         <v>71</v>
       </c>
@@ -9304,7 +9340,7 @@
       <c r="BM33" s="140">
         <v>10</v>
       </c>
-      <c r="BN33" s="282"/>
+      <c r="BN33" s="273"/>
       <c r="BO33" s="9" t="s">
         <v>71</v>
       </c>
@@ -9455,7 +9491,7 @@
         <v>148</v>
       </c>
       <c r="AW34" s="140"/>
-      <c r="AX34" s="283"/>
+      <c r="AX34" s="274"/>
       <c r="AY34" s="9" t="s">
         <v>81</v>
       </c>
@@ -9493,7 +9529,7 @@
       <c r="BM34" s="165">
         <v>70</v>
       </c>
-      <c r="BN34" s="283"/>
+      <c r="BN34" s="274"/>
       <c r="BO34" s="9" t="s">
         <v>81</v>
       </c>
@@ -10966,7 +11002,7 @@
     </row>
     <row r="44" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="163"/>
-      <c r="C44" s="281">
+      <c r="C44" s="272">
         <v>55</v>
       </c>
       <c r="D44" s="9" t="s">
@@ -11004,10 +11040,10 @@
       <c r="P44" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="S44" s="274">
+      <c r="S44" s="281">
         <v>25</v>
       </c>
-      <c r="T44" s="281">
+      <c r="T44" s="272">
         <v>55</v>
       </c>
       <c r="U44" s="9" t="s">
@@ -11016,7 +11052,7 @@
       <c r="V44" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="W44" s="276" t="s">
+      <c r="W44" s="275" t="s">
         <v>105</v>
       </c>
       <c r="X44" s="83" t="s">
@@ -11045,10 +11081,10 @@
       <c r="AG44" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="AJ44" s="274">
+      <c r="AJ44" s="281">
         <v>50</v>
       </c>
-      <c r="AK44" s="281">
+      <c r="AK44" s="272">
         <v>10</v>
       </c>
       <c r="AL44" s="190"/>
@@ -11058,7 +11094,7 @@
       <c r="AN44" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="AO44" s="276" t="s">
+      <c r="AO44" s="275" t="s">
         <v>105</v>
       </c>
       <c r="AP44" s="83" t="s">
@@ -11088,7 +11124,7 @@
         <v>168</v>
       </c>
       <c r="AZ44" s="49"/>
-      <c r="BD44" s="274">
+      <c r="BD44" s="281">
         <v>50</v>
       </c>
       <c r="BE44" s="208"/>
@@ -11099,7 +11135,7 @@
       <c r="BH44" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="BI44" s="276" t="s">
+      <c r="BI44" s="275" t="s">
         <v>105</v>
       </c>
       <c r="BJ44" s="83" t="s">
@@ -11128,7 +11164,7 @@
       <c r="BS44" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="BW44" s="274">
+      <c r="BW44" s="281">
         <v>25</v>
       </c>
       <c r="BX44" s="208"/>
@@ -11139,7 +11175,7 @@
       <c r="CA44" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="CB44" s="276" t="s">
+      <c r="CB44" s="275" t="s">
         <v>105</v>
       </c>
       <c r="CC44" s="83" t="s">
@@ -11171,7 +11207,7 @@
     </row>
     <row r="45" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="140"/>
-      <c r="C45" s="282"/>
+      <c r="C45" s="273"/>
       <c r="D45" s="9" t="s">
         <v>71</v>
       </c>
@@ -11205,15 +11241,15 @@
       <c r="P45" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="S45" s="275"/>
-      <c r="T45" s="283"/>
+      <c r="S45" s="282"/>
+      <c r="T45" s="274"/>
       <c r="U45" s="9" t="s">
         <v>71</v>
       </c>
       <c r="V45" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="W45" s="277"/>
+      <c r="W45" s="276"/>
       <c r="X45" s="182" t="s">
         <v>163</v>
       </c>
@@ -11240,8 +11276,8 @@
       <c r="AG45" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="AJ45" s="275"/>
-      <c r="AK45" s="283"/>
+      <c r="AJ45" s="282"/>
+      <c r="AK45" s="274"/>
       <c r="AL45" s="191"/>
       <c r="AM45" s="9" t="s">
         <v>71</v>
@@ -11249,7 +11285,7 @@
       <c r="AN45" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="AO45" s="277"/>
+      <c r="AO45" s="276"/>
       <c r="AP45" s="182" t="s">
         <v>163</v>
       </c>
@@ -11277,7 +11313,7 @@
         <v>168</v>
       </c>
       <c r="AZ45" s="49"/>
-      <c r="BD45" s="275"/>
+      <c r="BD45" s="282"/>
       <c r="BE45" s="165">
         <v>20</v>
       </c>
@@ -11288,7 +11324,7 @@
       <c r="BH45" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="BI45" s="277"/>
+      <c r="BI45" s="276"/>
       <c r="BJ45" s="182" t="s">
         <v>163</v>
       </c>
@@ -11315,7 +11351,7 @@
       <c r="BS45" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="BW45" s="275"/>
+      <c r="BW45" s="282"/>
       <c r="BX45" s="165"/>
       <c r="BY45" s="191"/>
       <c r="BZ45" s="9" t="s">
@@ -11324,7 +11360,7 @@
       <c r="CA45" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="CB45" s="277"/>
+      <c r="CB45" s="276"/>
       <c r="CC45" s="182" t="s">
         <v>163</v>
       </c>
@@ -11354,7 +11390,7 @@
     </row>
     <row r="46" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="165"/>
-      <c r="C46" s="283"/>
+      <c r="C46" s="274"/>
       <c r="D46" s="9" t="s">
         <v>81</v>
       </c>
@@ -11959,7 +11995,7 @@
       <c r="AN49" s="25"/>
       <c r="AO49" s="119"/>
       <c r="AP49" s="119"/>
-      <c r="AQ49" s="278"/>
+      <c r="AQ49" s="277"/>
       <c r="AS49" s="192"/>
       <c r="AT49" s="2"/>
       <c r="AU49" s="238"/>
@@ -11975,7 +12011,7 @@
       <c r="BH49" s="25"/>
       <c r="BI49" s="119"/>
       <c r="BJ49" s="119"/>
-      <c r="BK49" s="278"/>
+      <c r="BK49" s="277"/>
       <c r="BM49" s="192"/>
       <c r="BN49" s="2"/>
       <c r="BO49" s="238"/>
@@ -11990,7 +12026,7 @@
       <c r="CA49" s="25"/>
       <c r="CB49" s="119"/>
       <c r="CC49" s="119"/>
-      <c r="CD49" s="278"/>
+      <c r="CD49" s="277"/>
       <c r="CF49" s="192"/>
       <c r="CG49" s="2"/>
       <c r="CH49" s="238"/>
@@ -12014,7 +12050,7 @@
       <c r="AN50" s="25"/>
       <c r="AO50" s="119"/>
       <c r="AP50" s="119"/>
-      <c r="AQ50" s="278"/>
+      <c r="AQ50" s="277"/>
       <c r="AS50" s="192"/>
       <c r="AT50" s="2"/>
       <c r="AU50" s="238"/>
@@ -12035,7 +12071,7 @@
       <c r="BH50" s="25"/>
       <c r="BI50" s="119"/>
       <c r="BJ50" s="119"/>
-      <c r="BK50" s="278"/>
+      <c r="BK50" s="277"/>
       <c r="BM50" s="192"/>
       <c r="BN50" s="2"/>
       <c r="BO50" s="238"/>
@@ -12055,7 +12091,7 @@
       <c r="CA50" s="25"/>
       <c r="CB50" s="119"/>
       <c r="CC50" s="119"/>
-      <c r="CD50" s="278"/>
+      <c r="CD50" s="277"/>
       <c r="CF50" s="192"/>
       <c r="CG50" s="2"/>
       <c r="CH50" s="238"/>
@@ -12119,14 +12155,14 @@
       <c r="AN51" s="114"/>
       <c r="AO51" s="201"/>
       <c r="AP51" s="202"/>
-      <c r="AQ51" s="279"/>
+      <c r="AQ51" s="278"/>
       <c r="AR51" s="201"/>
       <c r="AS51" s="203"/>
       <c r="AT51" s="116" t="s">
         <v>160</v>
       </c>
-      <c r="AU51" s="280"/>
-      <c r="AV51" s="273"/>
+      <c r="AU51" s="279"/>
+      <c r="AV51" s="280"/>
       <c r="AW51" s="65"/>
       <c r="AX51" s="65"/>
       <c r="AY51" s="115"/>
@@ -12138,14 +12174,14 @@
       <c r="BH51" s="114"/>
       <c r="BI51" s="201"/>
       <c r="BJ51" s="202"/>
-      <c r="BK51" s="279"/>
+      <c r="BK51" s="278"/>
       <c r="BL51" s="201"/>
       <c r="BM51" s="203"/>
       <c r="BN51" s="79" t="s">
         <v>168</v>
       </c>
-      <c r="BO51" s="280"/>
-      <c r="BP51" s="273"/>
+      <c r="BO51" s="279"/>
+      <c r="BP51" s="280"/>
       <c r="BQ51" s="65"/>
       <c r="BR51" s="65"/>
       <c r="BS51" s="168"/>
@@ -12156,14 +12192,14 @@
       <c r="CA51" s="114"/>
       <c r="CB51" s="201"/>
       <c r="CC51" s="202"/>
-      <c r="CD51" s="279"/>
+      <c r="CD51" s="278"/>
       <c r="CE51" s="201"/>
       <c r="CF51" s="203" t="s">
         <v>180</v>
       </c>
       <c r="CG51" s="79"/>
-      <c r="CH51" s="280"/>
-      <c r="CI51" s="273"/>
+      <c r="CH51" s="279"/>
+      <c r="CI51" s="280"/>
       <c r="CJ51" s="65"/>
       <c r="CK51" s="65"/>
       <c r="CL51" s="168"/>
@@ -12771,7 +12807,7 @@
       <c r="G68" s="137"/>
       <c r="H68" s="203"/>
       <c r="I68" s="137"/>
-      <c r="J68" s="272"/>
+      <c r="J68" s="283"/>
       <c r="K68" s="50"/>
       <c r="L68" s="79"/>
       <c r="M68" s="79"/>
@@ -12783,22 +12819,25 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="S48:T48"/>
-    <mergeCell ref="AO44:AO45"/>
-    <mergeCell ref="AQ49:AQ51"/>
-    <mergeCell ref="AU49:AU51"/>
-    <mergeCell ref="AV49:AV51"/>
-    <mergeCell ref="AJ50:AK50"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="S44:S45"/>
-    <mergeCell ref="T44:T45"/>
-    <mergeCell ref="W44:W45"/>
-    <mergeCell ref="AJ38:AL38"/>
-    <mergeCell ref="AJ44:AJ45"/>
-    <mergeCell ref="AK44:AK45"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="N66:N67"/>
+    <mergeCell ref="O66:O67"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="CI49:CI51"/>
+    <mergeCell ref="BW50:BX50"/>
+    <mergeCell ref="BW38:BY38"/>
+    <mergeCell ref="BW44:BW45"/>
+    <mergeCell ref="CB44:CB45"/>
+    <mergeCell ref="CD49:CD51"/>
+    <mergeCell ref="CH49:CH51"/>
+    <mergeCell ref="BP49:BP51"/>
+    <mergeCell ref="BD50:BE50"/>
+    <mergeCell ref="BD38:BF38"/>
+    <mergeCell ref="BD44:BD45"/>
+    <mergeCell ref="BI44:BI45"/>
+    <mergeCell ref="BK49:BK51"/>
+    <mergeCell ref="BO49:BO51"/>
     <mergeCell ref="BR24:BS24"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B36:C36"/>
@@ -12814,25 +12853,22 @@
     <mergeCell ref="BM36:BN36"/>
     <mergeCell ref="AG24:AH24"/>
     <mergeCell ref="AZ24:BA24"/>
-    <mergeCell ref="BP49:BP51"/>
-    <mergeCell ref="BD50:BE50"/>
-    <mergeCell ref="BD38:BF38"/>
-    <mergeCell ref="BD44:BD45"/>
-    <mergeCell ref="BI44:BI45"/>
-    <mergeCell ref="BK49:BK51"/>
-    <mergeCell ref="BO49:BO51"/>
-    <mergeCell ref="CI49:CI51"/>
-    <mergeCell ref="BW50:BX50"/>
-    <mergeCell ref="BW38:BY38"/>
-    <mergeCell ref="BW44:BW45"/>
-    <mergeCell ref="CB44:CB45"/>
-    <mergeCell ref="CD49:CD51"/>
-    <mergeCell ref="CH49:CH51"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="N66:N67"/>
-    <mergeCell ref="O66:O67"/>
-    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="AQ49:AQ51"/>
+    <mergeCell ref="AU49:AU51"/>
+    <mergeCell ref="AV49:AV51"/>
+    <mergeCell ref="AJ50:AK50"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="S44:S45"/>
+    <mergeCell ref="T44:T45"/>
+    <mergeCell ref="W44:W45"/>
+    <mergeCell ref="AJ38:AL38"/>
+    <mergeCell ref="AJ44:AJ45"/>
+    <mergeCell ref="AK44:AK45"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="AO44:AO45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Usage_S_1.0.7.xlsx
+++ b/Usage_S_1.0.7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD87013-5C6A-4D98-8EB7-1881B48462AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F7DD12-EE15-4C0E-B52C-DC8EB6095E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="214">
   <si>
     <t>UnSettled</t>
   </si>
@@ -669,6 +669,15 @@
   </si>
   <si>
     <t>X-ParcelW - (2) -X</t>
+  </si>
+  <si>
+    <t>X-Local MarketW - (6) -X</t>
+  </si>
+  <si>
+    <t>X-Professional - (7) -X</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
   </si>
 </sst>
 </file>
@@ -1526,7 +1535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="284">
+  <cellXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2100,6 +2109,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2134,6 +2144,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2525,7 +2538,7 @@
   <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2543,7 +2556,7 @@
     <col min="12" max="12" width="9.140625" style="117" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="117" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.7109375" style="152" customWidth="1"/>
     <col min="18" max="18" width="4.85546875" style="1" customWidth="1"/>
@@ -2562,15 +2575,15 @@
       <c r="B2" s="34">
         <v>40.380000000000003</v>
       </c>
-      <c r="C2" s="242">
+      <c r="C2" s="243">
         <f>B3+B4</f>
         <v>0</v>
       </c>
-      <c r="E2" s="246" t="s">
+      <c r="E2" s="247" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="247"/>
-      <c r="G2" s="248"/>
+      <c r="F2" s="248"/>
+      <c r="G2" s="249"/>
       <c r="H2" s="26" t="s">
         <v>43</v>
       </c>
@@ -2592,7 +2605,7 @@
       <c r="N2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="171" t="s">
+      <c r="O2" s="143" t="s">
         <v>38</v>
       </c>
       <c r="P2" s="171" t="s">
@@ -2619,19 +2632,19 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="240" t="s">
+      <c r="A3" s="241" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="34">
         <v>0</v>
       </c>
-      <c r="C3" s="243"/>
+      <c r="C3" s="244"/>
       <c r="D3" s="162" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="241"/>
+      <c r="A4" s="242"/>
       <c r="B4" s="34">
         <v>0</v>
       </c>
@@ -2655,14 +2668,16 @@
       <c r="K4" s="194" t="s">
         <v>204</v>
       </c>
-      <c r="L4" s="83"/>
+      <c r="L4" s="83" t="s">
+        <v>213</v>
+      </c>
       <c r="M4" s="224" t="s">
         <v>156</v>
       </c>
       <c r="N4" s="143" t="s">
         <v>193</v>
       </c>
-      <c r="O4" s="176" t="s">
+      <c r="O4" s="169" t="s">
         <v>156</v>
       </c>
       <c r="P4" s="37" t="s">
@@ -2709,7 +2724,7 @@
       <c r="N5" s="143" t="s">
         <v>119</v>
       </c>
-      <c r="O5" s="212" t="s">
+      <c r="O5" s="237" t="s">
         <v>137</v>
       </c>
       <c r="P5" s="197" t="s">
@@ -2727,13 +2742,15 @@
     </row>
     <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
-        <v>1725</v>
+        <v>1915</v>
       </c>
       <c r="C6">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="E6" s="218"/>
-      <c r="F6" s="207"/>
+      <c r="F6" s="207">
+        <v>20</v>
+      </c>
       <c r="G6" s="127"/>
       <c r="H6" s="9" t="s">
         <v>203</v>
@@ -2744,7 +2761,9 @@
       <c r="J6" s="213" t="s">
         <v>165</v>
       </c>
-      <c r="K6" s="194"/>
+      <c r="K6" s="194" t="s">
+        <v>212</v>
+      </c>
       <c r="L6" s="83" t="s">
         <v>123</v>
       </c>
@@ -2754,20 +2773,20 @@
       <c r="N6" s="143" t="s">
         <v>120</v>
       </c>
-      <c r="O6" s="37" t="s">
+      <c r="O6" s="9" t="s">
         <v>146</v>
       </c>
       <c r="P6" s="176" t="s">
         <v>69</v>
       </c>
       <c r="Q6" s="154">
-        <v>0.91666666666666663</v>
+        <v>0.8125</v>
       </c>
       <c r="S6" s="154">
         <v>0.85555555555555562</v>
       </c>
       <c r="U6" s="24" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2780,7 +2799,9 @@
       <c r="E7" s="165">
         <v>1</v>
       </c>
-      <c r="F7" s="207"/>
+      <c r="F7" s="207">
+        <v>20</v>
+      </c>
       <c r="G7" s="127"/>
       <c r="H7" s="9" t="s">
         <v>188</v>
@@ -2803,14 +2824,14 @@
       <c r="N7" s="143" t="s">
         <v>192</v>
       </c>
-      <c r="O7" s="37" t="s">
+      <c r="O7" s="9" t="s">
         <v>21</v>
       </c>
       <c r="P7" s="37" t="s">
         <v>95</v>
       </c>
       <c r="Q7" s="154">
-        <v>0.85555555555555562</v>
+        <v>0.8125</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>130</v>
@@ -2824,7 +2845,9 @@
     </row>
     <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E8" s="219"/>
-      <c r="F8" s="208"/>
+      <c r="F8" s="208">
+        <v>50</v>
+      </c>
       <c r="G8" s="190"/>
       <c r="H8" s="9" t="s">
         <v>72</v>
@@ -2834,29 +2857,27 @@
       </c>
       <c r="J8" s="213"/>
       <c r="K8" s="194"/>
-      <c r="L8" s="83" t="s">
-        <v>155</v>
-      </c>
+      <c r="L8" s="83"/>
       <c r="M8" s="83" t="s">
         <v>70</v>
       </c>
       <c r="N8" s="187" t="s">
         <v>196</v>
       </c>
-      <c r="O8" s="37" t="s">
+      <c r="O8" s="9" t="s">
         <v>96</v>
       </c>
       <c r="P8" s="188" t="s">
         <v>65</v>
       </c>
       <c r="Q8" s="154">
-        <v>0.54999999999999993</v>
+        <v>0.8125</v>
       </c>
       <c r="S8" s="154">
         <v>0.85555555555555562</v>
       </c>
       <c r="U8" s="24" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2865,7 +2886,7 @@
       </c>
       <c r="B9" s="8">
         <f>7000+B6-C2</f>
-        <v>8725</v>
+        <v>8915</v>
       </c>
       <c r="E9" s="163">
         <v>14</v>
@@ -2893,7 +2914,7 @@
       <c r="N9" s="143" t="s">
         <v>191</v>
       </c>
-      <c r="O9" s="37" t="s">
+      <c r="O9" s="9" t="s">
         <v>62</v>
       </c>
       <c r="P9" s="37" t="s">
@@ -2911,31 +2932,35 @@
     </row>
     <row r="10" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10" s="220"/>
-      <c r="F10" s="165"/>
+      <c r="F10" s="165">
+        <v>70</v>
+      </c>
       <c r="G10" s="177"/>
       <c r="H10" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="I10" s="104" t="s">
-        <v>36</v>
+      <c r="I10" s="107" t="s">
+        <v>17</v>
       </c>
       <c r="J10" s="213"/>
       <c r="K10" s="169"/>
       <c r="L10" s="83" t="s">
         <v>143</v>
       </c>
-      <c r="M10" s="83" t="s">
-        <v>94</v>
+      <c r="M10" s="225" t="s">
+        <v>62</v>
       </c>
       <c r="N10" s="144" t="s">
         <v>122</v>
       </c>
-      <c r="O10" s="222"/>
+      <c r="O10" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="P10" s="37" t="s">
         <v>66</v>
       </c>
       <c r="Q10" s="154">
-        <v>0.91666666666666663</v>
+        <v>0.8125</v>
       </c>
       <c r="S10" s="154">
         <v>0.84375</v>
@@ -2955,7 +2980,9 @@
       <c r="E11" s="221">
         <v>10</v>
       </c>
-      <c r="F11" s="209"/>
+      <c r="F11" s="209">
+        <v>10</v>
+      </c>
       <c r="G11" s="184"/>
       <c r="H11" s="9" t="s">
         <v>102</v>
@@ -2978,7 +3005,7 @@
       <c r="N11" s="186" t="s">
         <v>110</v>
       </c>
-      <c r="O11" s="160" t="s">
+      <c r="O11" s="41" t="s">
         <v>78</v>
       </c>
       <c r="P11" s="198" t="s">
@@ -2996,7 +3023,9 @@
     </row>
     <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E12" s="165"/>
-      <c r="F12" s="205"/>
+      <c r="F12" s="205">
+        <v>10</v>
+      </c>
       <c r="G12" s="164"/>
       <c r="H12" s="28" t="s">
         <v>128</v>
@@ -3005,7 +3034,9 @@
         <v>17</v>
       </c>
       <c r="J12" s="213"/>
-      <c r="K12" s="194"/>
+      <c r="K12" s="194" t="s">
+        <v>211</v>
+      </c>
       <c r="L12" s="224" t="s">
         <v>123</v>
       </c>
@@ -3015,14 +3046,14 @@
       <c r="N12" s="143" t="s">
         <v>197</v>
       </c>
-      <c r="O12" s="37" t="s">
+      <c r="O12" s="9" t="s">
         <v>22</v>
       </c>
       <c r="P12" s="188" t="s">
         <v>181</v>
       </c>
       <c r="Q12" s="154">
-        <v>0.6875</v>
+        <v>0.8125</v>
       </c>
       <c r="R12" s="24"/>
       <c r="S12" s="154">
@@ -3038,12 +3069,14 @@
       </c>
       <c r="B13" s="8">
         <f>B18+Purchase!O2</f>
-        <v>8725</v>
+        <v>8915</v>
       </c>
       <c r="E13" s="36">
         <v>5</v>
       </c>
-      <c r="F13" s="205"/>
+      <c r="F13" s="205">
+        <v>10</v>
+      </c>
       <c r="G13" s="15"/>
       <c r="H13" s="9" t="s">
         <v>189</v>
@@ -3066,14 +3099,14 @@
       <c r="N13" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="O13" s="160" t="s">
+      <c r="O13" s="41" t="s">
         <v>62</v>
       </c>
       <c r="P13" s="229" t="s">
         <v>90</v>
       </c>
       <c r="Q13" s="154">
-        <v>0.71875</v>
+        <v>0.8125</v>
       </c>
       <c r="R13"/>
       <c r="S13" s="154">
@@ -3108,7 +3141,7 @@
       <c r="N14" s="143" t="s">
         <v>200</v>
       </c>
-      <c r="O14" s="176"/>
+      <c r="O14" s="169"/>
       <c r="P14" s="37" t="s">
         <v>29</v>
       </c>
@@ -3147,13 +3180,9 @@
         <v>176</v>
       </c>
       <c r="M15" s="233"/>
-      <c r="N15" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="O15" s="74"/>
-      <c r="P15" s="37" t="s">
-        <v>30</v>
-      </c>
+      <c r="N15" s="9"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="37"/>
       <c r="Q15" s="154">
         <v>0.91666666666666663</v>
       </c>
@@ -3178,21 +3207,21 @@
     <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
-      <c r="E17" s="244" t="s">
+      <c r="E17" s="245" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="245"/>
+      <c r="F17" s="246"/>
       <c r="G17" s="189"/>
       <c r="H17" s="9">
         <f>SUM(E4:G15)</f>
-        <v>70</v>
+        <v>260</v>
       </c>
       <c r="I17" s="26"/>
       <c r="J17" s="119"/>
       <c r="K17" s="216"/>
       <c r="L17" s="119"/>
-      <c r="Q17" s="238"/>
-      <c r="R17" s="239"/>
+      <c r="Q17" s="239"/>
+      <c r="R17" s="240"/>
     </row>
     <row r="18" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
@@ -3210,13 +3239,13 @@
       <c r="J18" s="119"/>
       <c r="K18" s="216"/>
       <c r="L18" s="119"/>
-      <c r="M18" s="237"/>
-      <c r="Q18" s="238"/>
-      <c r="R18" s="239"/>
+      <c r="M18" s="238"/>
+      <c r="Q18" s="239"/>
+      <c r="R18" s="240"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I19" s="226"/>
-      <c r="M19" s="237"/>
+      <c r="M19" s="238"/>
     </row>
     <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I20" s="227"/>
@@ -3238,7 +3267,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0951DD9-29CF-40D7-AA95-AE74BC805B9C}">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:O52"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
@@ -3265,18 +3294,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="261" t="s">
+      <c r="E1" s="263" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="263"/>
+      <c r="F1" s="265"/>
       <c r="G1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="261" t="s">
+      <c r="H1" s="263" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="262"/>
-      <c r="J1" s="263"/>
+      <c r="I1" s="264"/>
+      <c r="J1" s="265"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -3294,7 +3323,7 @@
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="264">
+      <c r="B2" s="266">
         <v>2</v>
       </c>
       <c r="C2" s="12">
@@ -3321,26 +3350,26 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="267">
+      <c r="K2" s="269">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="259">
+      <c r="L2" s="261">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="249">
+      <c r="M2" s="251">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
       <c r="O2">
-        <f>SUM(E2:J51)</f>
-        <v>8685</v>
+        <f>SUM(E2:J52)</f>
+        <v>8875</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="265"/>
+      <c r="B3" s="267"/>
       <c r="C3" s="13">
         <v>350</v>
       </c>
@@ -3355,13 +3384,13 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="55"/>
-      <c r="K3" s="268"/>
-      <c r="L3" s="260"/>
-      <c r="M3" s="250"/>
+      <c r="K3" s="270"/>
+      <c r="L3" s="262"/>
+      <c r="M3" s="252"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
-      <c r="B4" s="266"/>
+      <c r="B4" s="268"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5">
         <v>500</v>
@@ -3376,9 +3405,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="268"/>
-      <c r="L4" s="260"/>
-      <c r="M4" s="250"/>
+      <c r="K4" s="270"/>
+      <c r="L4" s="262"/>
+      <c r="M4" s="252"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -3460,7 +3489,7 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="251">
+      <c r="B7" s="253">
         <v>5</v>
       </c>
       <c r="C7" s="12"/>
@@ -3477,22 +3506,22 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="253">
+      <c r="K7" s="255">
         <f>SUM(F7:J8)</f>
         <v>270</v>
       </c>
-      <c r="L7" s="255">
+      <c r="L7" s="257">
         <f>SUM(E7:J8)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="257">
+      <c r="M7" s="259">
         <f>D8-L7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="252"/>
+      <c r="B8" s="254"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
         <v>500</v>
@@ -3513,9 +3542,9 @@
       <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="254"/>
-      <c r="L8" s="256"/>
-      <c r="M8" s="258"/>
+      <c r="K8" s="256"/>
+      <c r="L8" s="258"/>
+      <c r="M8" s="260"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -3595,7 +3624,7 @@
       <c r="A11" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="251">
+      <c r="B11" s="253">
         <v>8</v>
       </c>
       <c r="C11" s="68"/>
@@ -3622,7 +3651,7 @@
       <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="252"/>
+      <c r="B12" s="254"/>
       <c r="C12" s="90">
         <v>483</v>
       </c>
@@ -3679,7 +3708,7 @@
       <c r="M13" s="82"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="251">
+      <c r="B14" s="253">
         <v>10</v>
       </c>
       <c r="C14" s="95"/>
@@ -3702,7 +3731,7 @@
       <c r="A15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="252"/>
+      <c r="B15" s="254"/>
       <c r="C15" s="96"/>
       <c r="D15" s="82">
         <v>175</v>
@@ -3726,7 +3755,7 @@
       <c r="M15" s="91"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="264">
+      <c r="B16" s="266">
         <v>11</v>
       </c>
       <c r="C16" s="18"/>
@@ -3757,7 +3786,7 @@
       <c r="A17" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="265"/>
+      <c r="B17" s="267"/>
       <c r="C17" s="82"/>
       <c r="D17" s="82"/>
       <c r="E17" s="82"/>
@@ -3775,7 +3804,7 @@
       <c r="M17" s="82"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="264">
+      <c r="B18" s="266">
         <v>12</v>
       </c>
       <c r="C18" s="12"/>
@@ -3804,7 +3833,7 @@
       <c r="A19" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="266"/>
+      <c r="B19" s="268"/>
       <c r="C19" s="13"/>
       <c r="D19" s="18">
         <v>100</v>
@@ -3864,7 +3893,7 @@
       <c r="A21" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="270">
+      <c r="B21" s="272">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3892,7 +3921,7 @@
       <c r="M21" s="55"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="271"/>
+      <c r="B22" s="273"/>
       <c r="C22" s="131"/>
       <c r="D22" s="132">
         <v>235</v>
@@ -3944,7 +3973,7 @@
       <c r="M23" s="70"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="242">
+      <c r="B24" s="243">
         <v>16</v>
       </c>
       <c r="C24" s="141"/>
@@ -3973,7 +4002,7 @@
       <c r="A25" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="243"/>
+      <c r="B25" s="244"/>
       <c r="C25" s="142"/>
       <c r="D25" s="18">
         <v>130</v>
@@ -4001,7 +4030,7 @@
       <c r="M25" s="18"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="242">
+      <c r="B26" s="243">
         <v>17</v>
       </c>
       <c r="C26" s="161"/>
@@ -4032,7 +4061,7 @@
       <c r="A27" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="269"/>
+      <c r="B27" s="271"/>
       <c r="C27" s="96"/>
       <c r="D27" s="132">
         <v>100</v>
@@ -4063,7 +4092,7 @@
       <c r="A28" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="242">
+      <c r="B28" s="243">
         <v>18</v>
       </c>
       <c r="C28" s="141"/>
@@ -4085,7 +4114,7 @@
       <c r="M28" s="70"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="243"/>
+      <c r="B29" s="244"/>
       <c r="C29" s="142"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18">
@@ -4111,7 +4140,7 @@
       <c r="M29" s="18"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="242">
+      <c r="B30" s="243">
         <v>19</v>
       </c>
       <c r="C30" s="142"/>
@@ -4134,7 +4163,7 @@
       <c r="A31" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="243"/>
+      <c r="B31" s="244"/>
       <c r="C31" s="142"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
@@ -4161,7 +4190,7 @@
       <c r="A32" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="242">
+      <c r="B32" s="243">
         <v>20</v>
       </c>
       <c r="C32" s="142"/>
@@ -4183,7 +4212,7 @@
       <c r="M32" s="18"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="243"/>
+      <c r="B33" s="244"/>
       <c r="C33" s="142"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
@@ -4236,7 +4265,7 @@
       <c r="M34" s="82"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="242">
+      <c r="B35" s="243">
         <v>22</v>
       </c>
       <c r="C35" s="96"/>
@@ -4263,7 +4292,7 @@
       <c r="A36" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="243"/>
+      <c r="B36" s="244"/>
       <c r="C36" s="142"/>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
@@ -4285,7 +4314,7 @@
       <c r="M36" s="18"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="242">
+      <c r="B37" s="243">
         <v>23</v>
       </c>
       <c r="C37" s="142"/>
@@ -4318,7 +4347,7 @@
       <c r="A38" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="243"/>
+      <c r="B38" s="244"/>
       <c r="C38" s="96"/>
       <c r="D38" s="82"/>
       <c r="E38" s="82"/>
@@ -4336,7 +4365,7 @@
       <c r="M38" s="82"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="242">
+      <c r="B39" s="243">
         <v>24</v>
       </c>
       <c r="C39" s="142"/>
@@ -4363,7 +4392,7 @@
       <c r="A40" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="269"/>
+      <c r="B40" s="271"/>
       <c r="C40" s="96"/>
       <c r="D40" s="82">
         <v>210</v>
@@ -4391,7 +4420,7 @@
       <c r="M40" s="82"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="242">
+      <c r="B41" s="243">
         <v>25</v>
       </c>
       <c r="C41" s="142"/>
@@ -4418,7 +4447,7 @@
       <c r="A42" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="269"/>
+      <c r="B42" s="271"/>
       <c r="C42" s="142"/>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
@@ -4436,7 +4465,7 @@
       <c r="M42" s="18"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="243"/>
+      <c r="B43" s="244"/>
       <c r="C43" s="142"/>
       <c r="D43" s="18">
         <v>190</v>
@@ -4465,7 +4494,7 @@
       <c r="A44" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="242">
+      <c r="B44" s="243">
         <v>26</v>
       </c>
       <c r="C44" s="142"/>
@@ -4491,7 +4520,7 @@
       <c r="M44" s="18"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="243"/>
+      <c r="B45" s="244"/>
       <c r="C45" s="142"/>
       <c r="D45" s="18"/>
       <c r="E45" s="18"/>
@@ -4516,7 +4545,7 @@
       <c r="A46" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="242">
+      <c r="B46" s="243">
         <v>27</v>
       </c>
       <c r="C46" s="142"/>
@@ -4538,7 +4567,7 @@
       <c r="M46" s="18"/>
     </row>
     <row r="47" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="269"/>
+      <c r="B47" s="271"/>
       <c r="C47" s="211"/>
       <c r="D47" s="132"/>
       <c r="E47" s="132"/>
@@ -4559,7 +4588,7 @@
       <c r="A48" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B48" s="242">
+      <c r="B48" s="243">
         <v>28</v>
       </c>
       <c r="C48" s="142"/>
@@ -4579,7 +4608,7 @@
       <c r="M48" s="18"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B49" s="269"/>
+      <c r="B49" s="271"/>
       <c r="C49" s="142"/>
       <c r="D49" s="18">
         <v>175</v>
@@ -4605,7 +4634,7 @@
       <c r="M49" s="18"/>
     </row>
     <row r="50" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="269"/>
+      <c r="B50" s="271"/>
       <c r="C50" s="96"/>
       <c r="D50" s="82"/>
       <c r="E50" s="82"/>
@@ -4632,7 +4661,7 @@
       <c r="A51" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="34">
+      <c r="B51" s="243">
         <v>29</v>
       </c>
       <c r="C51" s="142"/>
@@ -4653,14 +4682,32 @@
       <c r="L51" s="18"/>
       <c r="M51" s="18"/>
     </row>
+    <row r="52" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="250"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18">
+        <v>190</v>
+      </c>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18">
+        <v>50</v>
+      </c>
+      <c r="G52" s="18">
+        <v>70</v>
+      </c>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18">
+        <v>40</v>
+      </c>
+      <c r="J52" s="18">
+        <v>30</v>
+      </c>
+      <c r="K52" s="18"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="18"/>
+    </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
+  <mergeCells count="28">
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="K2:K4"/>
@@ -4674,6 +4721,10 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B51:B52"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B11:B12"/>
@@ -4682,6 +4733,9 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="L2:L4"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B44:B45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4692,7 +4746,7 @@
   <dimension ref="A1:CL68"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51:R68"/>
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7888,10 +7942,10 @@
       <c r="CG23" s="49"/>
     </row>
     <row r="24" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AG24" s="244" t="s">
+      <c r="AG24" s="245" t="s">
         <v>4</v>
       </c>
-      <c r="AH24" s="245"/>
+      <c r="AH24" s="246"/>
       <c r="AI24" s="9">
         <f>SUM(AG16:AH23)</f>
         <v>40</v>
@@ -7911,10 +7965,10 @@
       <c r="AV24" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="AZ24" s="244" t="s">
+      <c r="AZ24" s="245" t="s">
         <v>4</v>
       </c>
-      <c r="BA24" s="245"/>
+      <c r="BA24" s="246"/>
       <c r="BB24" s="9">
         <f>SUM(AZ16:BA23)</f>
         <v>335</v>
@@ -7934,10 +7988,10 @@
       <c r="BO24" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="BR24" s="244" t="s">
+      <c r="BR24" s="245" t="s">
         <v>4</v>
       </c>
-      <c r="BS24" s="245"/>
+      <c r="BS24" s="246"/>
       <c r="BT24" s="9">
         <f>SUM(BR16:BS23)</f>
         <v>275</v>
@@ -7960,10 +8014,10 @@
     </row>
     <row r="25" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="246" t="s">
+      <c r="B26" s="247" t="s">
         <v>145</v>
       </c>
-      <c r="C26" s="248"/>
+      <c r="C26" s="249"/>
       <c r="D26" s="26" t="s">
         <v>43</v>
       </c>
@@ -8000,10 +8054,10 @@
       <c r="O26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="R26" s="246" t="s">
+      <c r="R26" s="247" t="s">
         <v>145</v>
       </c>
-      <c r="S26" s="248"/>
+      <c r="S26" s="249"/>
       <c r="T26" s="26" t="s">
         <v>43</v>
       </c>
@@ -8040,10 +8094,10 @@
       <c r="AE26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AG26" s="246" t="s">
+      <c r="AG26" s="247" t="s">
         <v>145</v>
       </c>
-      <c r="AH26" s="248"/>
+      <c r="AH26" s="249"/>
       <c r="AI26" s="26" t="s">
         <v>43</v>
       </c>
@@ -8080,10 +8134,10 @@
       <c r="AT26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AW26" s="246" t="s">
+      <c r="AW26" s="247" t="s">
         <v>145</v>
       </c>
-      <c r="AX26" s="248"/>
+      <c r="AX26" s="249"/>
       <c r="AY26" s="26" t="s">
         <v>43</v>
       </c>
@@ -8120,10 +8174,10 @@
       <c r="BJ26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="BM26" s="246" t="s">
+      <c r="BM26" s="247" t="s">
         <v>145</v>
       </c>
-      <c r="BN26" s="248"/>
+      <c r="BN26" s="249"/>
       <c r="BO26" s="26" t="s">
         <v>43</v>
       </c>
@@ -9117,7 +9171,7 @@
       <c r="AW32" s="163">
         <v>25</v>
       </c>
-      <c r="AX32" s="272">
+      <c r="AX32" s="274">
         <v>70</v>
       </c>
       <c r="AY32" s="9" t="s">
@@ -9155,7 +9209,7 @@
       <c r="BM32" s="163">
         <v>50</v>
       </c>
-      <c r="BN32" s="272">
+      <c r="BN32" s="274">
         <v>20</v>
       </c>
       <c r="BO32" s="9" t="s">
@@ -9304,7 +9358,7 @@
         <v>148</v>
       </c>
       <c r="AW33" s="163"/>
-      <c r="AX33" s="273"/>
+      <c r="AX33" s="275"/>
       <c r="AY33" s="9" t="s">
         <v>71</v>
       </c>
@@ -9340,7 +9394,7 @@
       <c r="BM33" s="140">
         <v>10</v>
       </c>
-      <c r="BN33" s="273"/>
+      <c r="BN33" s="275"/>
       <c r="BO33" s="9" t="s">
         <v>71</v>
       </c>
@@ -9491,7 +9545,7 @@
         <v>148</v>
       </c>
       <c r="AW34" s="140"/>
-      <c r="AX34" s="274"/>
+      <c r="AX34" s="276"/>
       <c r="AY34" s="9" t="s">
         <v>81</v>
       </c>
@@ -9529,7 +9583,7 @@
       <c r="BM34" s="165">
         <v>70</v>
       </c>
-      <c r="BN34" s="274"/>
+      <c r="BN34" s="276"/>
       <c r="BO34" s="9" t="s">
         <v>81</v>
       </c>
@@ -9760,10 +9814,10 @@
       </c>
     </row>
     <row r="36" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="244" t="s">
+      <c r="B36" s="245" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="245"/>
+      <c r="C36" s="246"/>
       <c r="D36" s="9">
         <f>SUM(B28:C35)</f>
         <v>512</v>
@@ -9781,10 +9835,10 @@
       <c r="M36" s="65"/>
       <c r="N36" s="65"/>
       <c r="O36" s="102"/>
-      <c r="R36" s="244" t="s">
+      <c r="R36" s="245" t="s">
         <v>4</v>
       </c>
-      <c r="S36" s="245"/>
+      <c r="S36" s="246"/>
       <c r="T36" s="9">
         <f>SUM(R28:S35)</f>
         <v>182</v>
@@ -9802,10 +9856,10 @@
       <c r="AC36" s="65"/>
       <c r="AD36" s="65"/>
       <c r="AE36" s="102"/>
-      <c r="AG36" s="244" t="s">
+      <c r="AG36" s="245" t="s">
         <v>4</v>
       </c>
-      <c r="AH36" s="245"/>
+      <c r="AH36" s="246"/>
       <c r="AI36" s="9">
         <f>SUM(AG28:AH35)</f>
         <v>360</v>
@@ -9823,10 +9877,10 @@
       <c r="AR36" s="65"/>
       <c r="AS36" s="65"/>
       <c r="AT36" s="102"/>
-      <c r="AW36" s="244" t="s">
+      <c r="AW36" s="245" t="s">
         <v>4</v>
       </c>
-      <c r="AX36" s="245"/>
+      <c r="AX36" s="246"/>
       <c r="AY36" s="9">
         <f>SUM(AW28:AX35)</f>
         <v>200</v>
@@ -9844,10 +9898,10 @@
       <c r="BH36" s="65"/>
       <c r="BI36" s="65"/>
       <c r="BJ36" s="102"/>
-      <c r="BM36" s="244" t="s">
+      <c r="BM36" s="245" t="s">
         <v>4</v>
       </c>
-      <c r="BN36" s="245"/>
+      <c r="BN36" s="246"/>
       <c r="BO36" s="9">
         <f>SUM(BM28:BN35)</f>
         <v>260</v>
@@ -9867,10 +9921,10 @@
     </row>
     <row r="37" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="246" t="s">
+      <c r="B38" s="247" t="s">
         <v>145</v>
       </c>
-      <c r="C38" s="248"/>
+      <c r="C38" s="249"/>
       <c r="D38" s="26" t="s">
         <v>43</v>
       </c>
@@ -9910,10 +9964,10 @@
       <c r="P38" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="S38" s="246" t="s">
+      <c r="S38" s="247" t="s">
         <v>145</v>
       </c>
-      <c r="T38" s="248"/>
+      <c r="T38" s="249"/>
       <c r="U38" s="26" t="s">
         <v>43</v>
       </c>
@@ -9953,11 +10007,11 @@
       <c r="AG38" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="AJ38" s="246" t="s">
+      <c r="AJ38" s="247" t="s">
         <v>145</v>
       </c>
-      <c r="AK38" s="247"/>
-      <c r="AL38" s="248"/>
+      <c r="AK38" s="248"/>
+      <c r="AL38" s="249"/>
       <c r="AM38" s="26" t="s">
         <v>43</v>
       </c>
@@ -10002,11 +10056,11 @@
         <f ca="1">TODAY()</f>
         <v>45289</v>
       </c>
-      <c r="BD38" s="246" t="s">
+      <c r="BD38" s="247" t="s">
         <v>145</v>
       </c>
-      <c r="BE38" s="247"/>
-      <c r="BF38" s="248"/>
+      <c r="BE38" s="248"/>
+      <c r="BF38" s="249"/>
       <c r="BG38" s="26" t="s">
         <v>43</v>
       </c>
@@ -10046,11 +10100,11 @@
       <c r="BS38" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="BW38" s="246" t="s">
+      <c r="BW38" s="247" t="s">
         <v>145</v>
       </c>
-      <c r="BX38" s="247"/>
-      <c r="BY38" s="248"/>
+      <c r="BX38" s="248"/>
+      <c r="BY38" s="249"/>
       <c r="BZ38" s="26" t="s">
         <v>43</v>
       </c>
@@ -11002,7 +11056,7 @@
     </row>
     <row r="44" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="163"/>
-      <c r="C44" s="272">
+      <c r="C44" s="274">
         <v>55</v>
       </c>
       <c r="D44" s="9" t="s">
@@ -11040,10 +11094,10 @@
       <c r="P44" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="S44" s="281">
+      <c r="S44" s="283">
         <v>25</v>
       </c>
-      <c r="T44" s="272">
+      <c r="T44" s="274">
         <v>55</v>
       </c>
       <c r="U44" s="9" t="s">
@@ -11052,7 +11106,7 @@
       <c r="V44" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="W44" s="275" t="s">
+      <c r="W44" s="277" t="s">
         <v>105</v>
       </c>
       <c r="X44" s="83" t="s">
@@ -11081,10 +11135,10 @@
       <c r="AG44" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="AJ44" s="281">
+      <c r="AJ44" s="283">
         <v>50</v>
       </c>
-      <c r="AK44" s="272">
+      <c r="AK44" s="274">
         <v>10</v>
       </c>
       <c r="AL44" s="190"/>
@@ -11094,7 +11148,7 @@
       <c r="AN44" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="AO44" s="275" t="s">
+      <c r="AO44" s="277" t="s">
         <v>105</v>
       </c>
       <c r="AP44" s="83" t="s">
@@ -11124,7 +11178,7 @@
         <v>168</v>
       </c>
       <c r="AZ44" s="49"/>
-      <c r="BD44" s="281">
+      <c r="BD44" s="283">
         <v>50</v>
       </c>
       <c r="BE44" s="208"/>
@@ -11135,7 +11189,7 @@
       <c r="BH44" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="BI44" s="275" t="s">
+      <c r="BI44" s="277" t="s">
         <v>105</v>
       </c>
       <c r="BJ44" s="83" t="s">
@@ -11164,7 +11218,7 @@
       <c r="BS44" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="BW44" s="281">
+      <c r="BW44" s="283">
         <v>25</v>
       </c>
       <c r="BX44" s="208"/>
@@ -11175,7 +11229,7 @@
       <c r="CA44" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="CB44" s="275" t="s">
+      <c r="CB44" s="277" t="s">
         <v>105</v>
       </c>
       <c r="CC44" s="83" t="s">
@@ -11207,7 +11261,7 @@
     </row>
     <row r="45" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="140"/>
-      <c r="C45" s="273"/>
+      <c r="C45" s="275"/>
       <c r="D45" s="9" t="s">
         <v>71</v>
       </c>
@@ -11241,15 +11295,15 @@
       <c r="P45" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="S45" s="282"/>
-      <c r="T45" s="274"/>
+      <c r="S45" s="284"/>
+      <c r="T45" s="276"/>
       <c r="U45" s="9" t="s">
         <v>71</v>
       </c>
       <c r="V45" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="W45" s="276"/>
+      <c r="W45" s="278"/>
       <c r="X45" s="182" t="s">
         <v>163</v>
       </c>
@@ -11276,8 +11330,8 @@
       <c r="AG45" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="AJ45" s="282"/>
-      <c r="AK45" s="274"/>
+      <c r="AJ45" s="284"/>
+      <c r="AK45" s="276"/>
       <c r="AL45" s="191"/>
       <c r="AM45" s="9" t="s">
         <v>71</v>
@@ -11285,7 +11339,7 @@
       <c r="AN45" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="AO45" s="276"/>
+      <c r="AO45" s="278"/>
       <c r="AP45" s="182" t="s">
         <v>163</v>
       </c>
@@ -11313,7 +11367,7 @@
         <v>168</v>
       </c>
       <c r="AZ45" s="49"/>
-      <c r="BD45" s="282"/>
+      <c r="BD45" s="284"/>
       <c r="BE45" s="165">
         <v>20</v>
       </c>
@@ -11324,7 +11378,7 @@
       <c r="BH45" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="BI45" s="276"/>
+      <c r="BI45" s="278"/>
       <c r="BJ45" s="182" t="s">
         <v>163</v>
       </c>
@@ -11351,7 +11405,7 @@
       <c r="BS45" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="BW45" s="282"/>
+      <c r="BW45" s="284"/>
       <c r="BX45" s="165"/>
       <c r="BY45" s="191"/>
       <c r="BZ45" s="9" t="s">
@@ -11360,7 +11414,7 @@
       <c r="CA45" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="CB45" s="276"/>
+      <c r="CB45" s="278"/>
       <c r="CC45" s="182" t="s">
         <v>163</v>
       </c>
@@ -11390,7 +11444,7 @@
     </row>
     <row r="46" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="165"/>
-      <c r="C46" s="274"/>
+      <c r="C46" s="276"/>
       <c r="D46" s="9" t="s">
         <v>81</v>
       </c>
@@ -11817,10 +11871,10 @@
       </c>
     </row>
     <row r="48" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="244" t="s">
+      <c r="B48" s="245" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="245"/>
+      <c r="C48" s="246"/>
       <c r="D48" s="9">
         <f>SUM(B40:C47)</f>
         <v>200</v>
@@ -11839,10 +11893,10 @@
       <c r="N48" s="65"/>
       <c r="O48" s="65"/>
       <c r="P48" s="168"/>
-      <c r="S48" s="244" t="s">
+      <c r="S48" s="245" t="s">
         <v>4</v>
       </c>
-      <c r="T48" s="245"/>
+      <c r="T48" s="246"/>
       <c r="U48" s="9">
         <f>SUM(S40:T47)</f>
         <v>296</v>
@@ -11995,11 +12049,11 @@
       <c r="AN49" s="25"/>
       <c r="AO49" s="119"/>
       <c r="AP49" s="119"/>
-      <c r="AQ49" s="277"/>
+      <c r="AQ49" s="279"/>
       <c r="AS49" s="192"/>
       <c r="AT49" s="2"/>
-      <c r="AU49" s="238"/>
-      <c r="AV49" s="239"/>
+      <c r="AU49" s="239"/>
+      <c r="AV49" s="240"/>
       <c r="AW49" s="1"/>
       <c r="AX49" s="1"/>
       <c r="AY49" s="24"/>
@@ -12011,11 +12065,11 @@
       <c r="BH49" s="25"/>
       <c r="BI49" s="119"/>
       <c r="BJ49" s="119"/>
-      <c r="BK49" s="277"/>
+      <c r="BK49" s="279"/>
       <c r="BM49" s="192"/>
       <c r="BN49" s="2"/>
-      <c r="BO49" s="238"/>
-      <c r="BP49" s="239"/>
+      <c r="BO49" s="239"/>
+      <c r="BP49" s="240"/>
       <c r="BQ49" s="1"/>
       <c r="BR49" s="1"/>
       <c r="BS49" s="46"/>
@@ -12026,20 +12080,20 @@
       <c r="CA49" s="25"/>
       <c r="CB49" s="119"/>
       <c r="CC49" s="119"/>
-      <c r="CD49" s="277"/>
+      <c r="CD49" s="279"/>
       <c r="CF49" s="192"/>
       <c r="CG49" s="2"/>
-      <c r="CH49" s="238"/>
-      <c r="CI49" s="239"/>
+      <c r="CH49" s="239"/>
+      <c r="CI49" s="240"/>
       <c r="CJ49" s="1"/>
       <c r="CK49" s="1"/>
       <c r="CL49" s="46"/>
     </row>
     <row r="50" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AJ50" s="244" t="s">
+      <c r="AJ50" s="245" t="s">
         <v>4</v>
       </c>
-      <c r="AK50" s="245"/>
+      <c r="AK50" s="246"/>
       <c r="AL50" s="189" t="s">
         <v>179</v>
       </c>
@@ -12050,19 +12104,19 @@
       <c r="AN50" s="25"/>
       <c r="AO50" s="119"/>
       <c r="AP50" s="119"/>
-      <c r="AQ50" s="277"/>
+      <c r="AQ50" s="279"/>
       <c r="AS50" s="192"/>
       <c r="AT50" s="2"/>
-      <c r="AU50" s="238"/>
-      <c r="AV50" s="239"/>
+      <c r="AU50" s="239"/>
+      <c r="AV50" s="240"/>
       <c r="AW50" s="1"/>
       <c r="AX50" s="1"/>
       <c r="AY50" s="24"/>
       <c r="AZ50" s="49"/>
-      <c r="BD50" s="244" t="s">
+      <c r="BD50" s="245" t="s">
         <v>4</v>
       </c>
-      <c r="BE50" s="245"/>
+      <c r="BE50" s="246"/>
       <c r="BF50" s="189"/>
       <c r="BG50" s="9">
         <f>SUM(BD40:BF48)</f>
@@ -12071,18 +12125,18 @@
       <c r="BH50" s="25"/>
       <c r="BI50" s="119"/>
       <c r="BJ50" s="119"/>
-      <c r="BK50" s="277"/>
+      <c r="BK50" s="279"/>
       <c r="BM50" s="192"/>
       <c r="BN50" s="2"/>
-      <c r="BO50" s="238"/>
-      <c r="BP50" s="239"/>
+      <c r="BO50" s="239"/>
+      <c r="BP50" s="240"/>
       <c r="BQ50" s="1"/>
       <c r="BR50" s="1"/>
       <c r="BS50" s="46"/>
-      <c r="BW50" s="244" t="s">
+      <c r="BW50" s="245" t="s">
         <v>4</v>
       </c>
-      <c r="BX50" s="245"/>
+      <c r="BX50" s="246"/>
       <c r="BY50" s="189"/>
       <c r="BZ50" s="9">
         <f>SUM(BW40:BY48)</f>
@@ -12091,21 +12145,21 @@
       <c r="CA50" s="25"/>
       <c r="CB50" s="119"/>
       <c r="CC50" s="119"/>
-      <c r="CD50" s="277"/>
+      <c r="CD50" s="279"/>
       <c r="CF50" s="192"/>
       <c r="CG50" s="2"/>
-      <c r="CH50" s="238"/>
-      <c r="CI50" s="239"/>
+      <c r="CH50" s="239"/>
+      <c r="CI50" s="240"/>
       <c r="CJ50" s="1"/>
       <c r="CK50" s="1"/>
       <c r="CL50" s="46"/>
     </row>
     <row r="51" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="246" t="s">
+      <c r="B51" s="247" t="s">
         <v>145</v>
       </c>
-      <c r="C51" s="247"/>
-      <c r="D51" s="248"/>
+      <c r="C51" s="248"/>
+      <c r="D51" s="249"/>
       <c r="E51" s="26" t="s">
         <v>43</v>
       </c>
@@ -12155,14 +12209,14 @@
       <c r="AN51" s="114"/>
       <c r="AO51" s="201"/>
       <c r="AP51" s="202"/>
-      <c r="AQ51" s="278"/>
+      <c r="AQ51" s="280"/>
       <c r="AR51" s="201"/>
       <c r="AS51" s="203"/>
       <c r="AT51" s="116" t="s">
         <v>160</v>
       </c>
-      <c r="AU51" s="279"/>
-      <c r="AV51" s="280"/>
+      <c r="AU51" s="281"/>
+      <c r="AV51" s="282"/>
       <c r="AW51" s="65"/>
       <c r="AX51" s="65"/>
       <c r="AY51" s="115"/>
@@ -12174,14 +12228,14 @@
       <c r="BH51" s="114"/>
       <c r="BI51" s="201"/>
       <c r="BJ51" s="202"/>
-      <c r="BK51" s="278"/>
+      <c r="BK51" s="280"/>
       <c r="BL51" s="201"/>
       <c r="BM51" s="203"/>
       <c r="BN51" s="79" t="s">
         <v>168</v>
       </c>
-      <c r="BO51" s="279"/>
-      <c r="BP51" s="280"/>
+      <c r="BO51" s="281"/>
+      <c r="BP51" s="282"/>
       <c r="BQ51" s="65"/>
       <c r="BR51" s="65"/>
       <c r="BS51" s="168"/>
@@ -12192,14 +12246,14 @@
       <c r="CA51" s="114"/>
       <c r="CB51" s="201"/>
       <c r="CC51" s="202"/>
-      <c r="CD51" s="278"/>
+      <c r="CD51" s="280"/>
       <c r="CE51" s="201"/>
       <c r="CF51" s="203" t="s">
         <v>180</v>
       </c>
       <c r="CG51" s="79"/>
-      <c r="CH51" s="279"/>
-      <c r="CI51" s="280"/>
+      <c r="CH51" s="281"/>
+      <c r="CI51" s="282"/>
       <c r="CJ51" s="65"/>
       <c r="CK51" s="65"/>
       <c r="CL51" s="168"/>
@@ -12759,10 +12813,10 @@
       <c r="R65" s="46"/>
     </row>
     <row r="66" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="244" t="s">
+      <c r="B66" s="245" t="s">
         <v>4</v>
       </c>
-      <c r="C66" s="245"/>
+      <c r="C66" s="246"/>
       <c r="D66" s="189"/>
       <c r="E66" s="9">
         <f>SUM(B53:D64)</f>
@@ -12775,8 +12829,8 @@
       <c r="J66" s="117"/>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
-      <c r="N66" s="238"/>
-      <c r="O66" s="239"/>
+      <c r="N66" s="239"/>
+      <c r="O66" s="240"/>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="46"/>
@@ -12789,11 +12843,11 @@
       <c r="G67" s="119"/>
       <c r="H67" s="216"/>
       <c r="I67" s="119"/>
-      <c r="J67" s="237"/>
+      <c r="J67" s="238"/>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
-      <c r="N67" s="238"/>
-      <c r="O67" s="239"/>
+      <c r="N67" s="239"/>
+      <c r="O67" s="240"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="46"/>
@@ -12807,7 +12861,7 @@
       <c r="G68" s="137"/>
       <c r="H68" s="203"/>
       <c r="I68" s="137"/>
-      <c r="J68" s="283"/>
+      <c r="J68" s="285"/>
       <c r="K68" s="50"/>
       <c r="L68" s="79"/>
       <c r="M68" s="79"/>
